--- a/raw_data/Cuke_size.xlsx
+++ b/raw_data/Cuke_size.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan Farr\Github\DS_cucumber\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D593F7-A43A-49ED-BDB1-177C8CE9059B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A258EC-8E8B-419C-B3D6-4171FC28017C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10080" yWindow="0" windowWidth="12960" windowHeight="12240" xr2:uid="{0088644A-7871-5B44-94C1-92B851EFAC2D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0088644A-7871-5B44-94C1-92B851EFAC2D}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="2" r:id="rId1"/>
@@ -569,7 +569,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
